--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,15 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
@@ -58,10 +61,13 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
@@ -70,114 +76,108 @@
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -187,43 +187,49 @@
     <t>works</t>
   </si>
   <si>
-    <t>every</t>
+    <t>pan</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3875968992248062</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3232323232323233</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,10 +794,10 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8668730650154799</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +869,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -915,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6883116883116883</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -941,13 +947,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6745762711864407</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L12">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -967,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.65625</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -993,13 +999,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6436597110754414</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L14">
-        <v>802</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>802</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>444</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1019,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6197183098591549</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1045,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6171428571428571</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>804</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>804</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>67</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1123,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1149,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6027397260273972</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1175,13 +1181,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5964912280701754</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1227,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5735294117647058</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1253,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5694444444444444</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1279,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5576923076923077</v>
+        <v>0.5625</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1305,13 +1311,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1331,13 +1337,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5263157894736842</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1357,13 +1363,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5089820359281437</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L28">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1375,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4939759036144578</v>
+        <v>0.51</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,7 +1415,7 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4923076923076923</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L30">
         <v>32</v>
@@ -1427,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1435,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.49</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1453,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1461,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4700854700854701</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1487,13 +1493,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4320987654320987</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1513,13 +1519,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4264705882352941</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1539,13 +1545,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1557,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1591,13 +1597,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3602941176470588</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L37">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="M37">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1609,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>261</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1617,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3540856031128405</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L38">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1643,13 +1649,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3423423423423423</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1661,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1669,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3</v>
+        <v>0.3027397260273972</v>
       </c>
       <c r="L40">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M40">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1687,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1695,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2980132450331126</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1721,13 +1727,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2962962962962963</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1739,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1747,13 +1753,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2932330827067669</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1765,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1773,13 +1779,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2805755395683453</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1791,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1799,13 +1805,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2631578947368421</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L45">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1817,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1825,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2529601722282024</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L46">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M46">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1840,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1851,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1946308724832215</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1869,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1877,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1933774834437086</v>
+        <v>0.2132450331125828</v>
       </c>
       <c r="L48">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M48">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1895,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1903,13 +1909,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1829268292682927</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1921,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>134</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1929,25 +1935,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.180306905370844</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L50">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M50">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1955,13 +1961,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1755485893416928</v>
+        <v>0.1671159029649596</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M51">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1973,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>263</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1981,25 +1987,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1486486486486487</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L52">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>315</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2007,13 +2013,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1365313653136531</v>
+        <v>0.1402214022140221</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2025,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2033,13 +2039,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1340909090909091</v>
+        <v>0.1359649122807018</v>
       </c>
       <c r="L54">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M54">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2051,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2059,13 +2065,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.121654501216545</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M55">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2077,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2085,25 +2091,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1196172248803828</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="L56">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>368</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2111,13 +2117,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1185185185185185</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2129,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2137,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1168384879725086</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2155,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2163,13 +2169,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1162280701754386</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L59">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M59">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2189,25 +2195,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.07747489239598278</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L60">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M60">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>643</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2215,25 +2221,25 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.07376283846872082</v>
+        <v>0.07747489239598278</v>
       </c>
       <c r="L61">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="M61">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N61">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>992</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2241,13 +2247,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.06088560885608856</v>
+        <v>0.07182835820895522</v>
       </c>
       <c r="L62">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>509</v>
+        <v>995</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2267,24 +2273,76 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.04592720970537262</v>
+        <v>0.05576923076923077</v>
       </c>
       <c r="L63">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="N63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O63">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L64">
+        <v>29</v>
+      </c>
+      <c r="M64">
+        <v>29</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.04675324675324675</v>
+      </c>
+      <c r="L65">
+        <v>54</v>
+      </c>
+      <c r="M65">
         <v>56</v>
       </c>
-      <c r="N63">
-        <v>0.95</v>
-      </c>
-      <c r="O63">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
+      <c r="N65">
+        <v>0.96</v>
+      </c>
+      <c r="O65">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
         <v>1101</v>
       </c>
     </row>
